--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1211 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_6</t>
+          <t>model_2_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9564437793740883</v>
+        <v>0.9975965925217696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7580170082003834</v>
+        <v>0.8203656093757686</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6622799321761608</v>
+        <v>0.9999156455610038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9059416367873517</v>
+        <v>0.9995170644429986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8518649030741832</v>
+        <v>0.999800430392713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2912606478834265</v>
+        <v>0.01607159687360073</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61814138039326</v>
+        <v>1.201215997244548</v>
       </c>
       <c r="I2" t="n">
-        <v>0.784162950305258</v>
+        <v>0.0003871758132892892</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7397990086364233</v>
+        <v>0.001017331024134787</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7619809794708405</v>
+        <v>0.0007022534187120383</v>
       </c>
       <c r="L2" t="n">
-        <v>2.049278115917593</v>
+        <v>0.05616280452761498</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5396856936064051</v>
+        <v>0.1267738020002585</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02825268364924</v>
+        <v>1.001558967012906</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5626612308866277</v>
+        <v>0.1321708252093575</v>
       </c>
       <c r="P2" t="n">
-        <v>124.4670734310282</v>
+        <v>130.2614034686253</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.8184987479885</v>
+        <v>204.6128287855855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_7</t>
+          <t>model_2_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9569226142799135</v>
+        <v>0.9980011596509989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.757943179759771</v>
+        <v>0.8203535998599394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6846615139646435</v>
+        <v>0.9998317953182305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8947247595555365</v>
+        <v>0.9988841111670097</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8483406957885162</v>
+        <v>0.9995562854926494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2880586766633407</v>
+        <v>0.01336625461758404</v>
       </c>
       <c r="H3" t="n">
-        <v>1.618635071515584</v>
+        <v>1.201296304932197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7321944447887012</v>
+        <v>0.0007720374320324091</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8280233235475031</v>
+        <v>0.002350682845420323</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7801088841681021</v>
+        <v>0.001561360138726366</v>
       </c>
       <c r="L3" t="n">
-        <v>2.150032457079451</v>
+        <v>0.05438257132104461</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536710980569003</v>
+        <v>0.1156125192943395</v>
       </c>
       <c r="N3" t="n">
-        <v>1.027942088034651</v>
+        <v>1.001296545091244</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5595598781567185</v>
+        <v>0.1205343835916073</v>
       </c>
       <c r="P3" t="n">
-        <v>124.4891821623673</v>
+        <v>130.6300441208551</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.8406074793276</v>
+        <v>204.9814694378153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_5</t>
+          <t>model_2_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554895709017872</v>
+        <v>0.9983061430988303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7577339438382338</v>
+        <v>0.8203070967000579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6348864039448371</v>
+        <v>0.9996555561942647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9177882734904469</v>
+        <v>0.9981325956325279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8547393857934326</v>
+        <v>0.999216406629184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2976414443314297</v>
+        <v>0.01132682889761592</v>
       </c>
       <c r="H4" t="n">
-        <v>1.620034233086346</v>
+        <v>1.201607271776453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8477688534295875</v>
+        <v>0.001580951900160293</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6466214347421002</v>
+        <v>0.003933792759908041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7471951440858439</v>
+        <v>0.002757339311413656</v>
       </c>
       <c r="L4" t="n">
-        <v>1.932695429830912</v>
+        <v>0.0531578304651338</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5455652521297794</v>
+        <v>0.1064275758326568</v>
       </c>
       <c r="N4" t="n">
-        <v>1.028871629685327</v>
+        <v>1.001098717989948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.568791094388706</v>
+        <v>0.1109584180713067</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4237314477057</v>
+        <v>130.9611622571765</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.775156764666</v>
+        <v>205.3125875741368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_8</t>
+          <t>model_2_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9570617116802654</v>
+        <v>0.9985324262272425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7576248781824366</v>
+        <v>0.8202364550684892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7031382842549472</v>
+        <v>0.9994045061503212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.884213173303644</v>
+        <v>0.9973303370756615</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8444743921436483</v>
+        <v>0.9988125297589541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2871285317067032</v>
+        <v>0.009813672575985363</v>
       </c>
       <c r="H5" t="n">
-        <v>1.620763555628863</v>
+        <v>1.202079652692027</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6892926450931184</v>
+        <v>0.002733238680759515</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9107003000834994</v>
+        <v>0.005623795716711294</v>
       </c>
       <c r="K5" t="n">
-        <v>0.799996472588309</v>
+        <v>0.004178517198735405</v>
       </c>
       <c r="L5" t="n">
-        <v>2.237252974298844</v>
+        <v>0.05245506697939082</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5358437568048201</v>
+        <v>0.09906398223363203</v>
       </c>
       <c r="N5" t="n">
-        <v>1.027851862693882</v>
+        <v>1.000951939744491</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5586557348814937</v>
+        <v>0.1032813410480312</v>
       </c>
       <c r="P5" t="n">
-        <v>124.495650635615</v>
+        <v>131.2479574096467</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.8470759525752</v>
+        <v>205.599382726607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_9</t>
+          <t>model_2_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9569610423888986</v>
+        <v>0.9986965284622442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7571439298344876</v>
+        <v>0.8201496232787154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7185361538693273</v>
+        <v>0.9990956212784586</v>
       </c>
       <c r="E6" t="n">
-        <v>0.874436530343069</v>
+        <v>0.9965170976454598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8404750713313756</v>
+        <v>0.9983676564084957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2878017077216128</v>
+        <v>0.008716320174907677</v>
       </c>
       <c r="H6" t="n">
-        <v>1.623979659446161</v>
+        <v>1.202660297270067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6535398426522333</v>
+        <v>0.004150979737415839</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9875967133633449</v>
+        <v>0.007336930503329525</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8205682780077891</v>
+        <v>0.005743955120372683</v>
       </c>
       <c r="L6" t="n">
-        <v>2.31293868428416</v>
+        <v>0.05184399652698523</v>
       </c>
       <c r="M6" t="n">
-        <v>0.536471534866122</v>
+        <v>0.09336123486173303</v>
       </c>
       <c r="N6" t="n">
-        <v>1.027917161693688</v>
+        <v>1.000845495051517</v>
       </c>
       <c r="O6" t="n">
-        <v>0.559310238754545</v>
+        <v>0.09733581591419603</v>
       </c>
       <c r="P6" t="n">
-        <v>124.4909671016738</v>
+        <v>131.485116256836</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.8423924186341</v>
+        <v>205.8365415737962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_4</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9538764611325357</v>
+        <v>0.9988117179245263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7569395302202921</v>
+        <v>0.820052239364232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6009864920424629</v>
+        <v>0.9987444531395504</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9301241508500735</v>
+        <v>0.995716469054802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8565194158751295</v>
+        <v>0.9978989946343848</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3084283167861021</v>
+        <v>0.007946047710228672</v>
       </c>
       <c r="H7" t="n">
-        <v>1.62534648060746</v>
+        <v>1.20331150395463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9264821354200443</v>
+        <v>0.005762795445054061</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5495958271341947</v>
+        <v>0.009023499844263622</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7380389812771195</v>
+        <v>0.007393100686991082</v>
       </c>
       <c r="L7" t="n">
-        <v>1.797612120371248</v>
+        <v>0.05130019390324222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.555363229594922</v>
+        <v>0.08914060640487405</v>
       </c>
       <c r="N7" t="n">
-        <v>1.029917971157274</v>
+        <v>1.000770777562469</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5790061920391492</v>
+        <v>0.0929355065660232</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3525316462709</v>
+        <v>131.6701612346002</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.7039569632311</v>
+        <v>206.0215865515604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_10</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9566945987423963</v>
+        <v>0.998888577846777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7565599810385064</v>
+        <v>0.8199487686014977</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7314795075481242</v>
+        <v>0.9983646333559233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8653949467999698</v>
+        <v>0.9949427281626576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.836483746332669</v>
+        <v>0.9974196681699418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.289583417612634</v>
+        <v>0.007432085056230814</v>
       </c>
       <c r="H8" t="n">
-        <v>1.627884527733725</v>
+        <v>1.204003413421473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6234862587091435</v>
+        <v>0.00750611844475795</v>
       </c>
       <c r="J8" t="n">
-        <v>1.058711650017789</v>
+        <v>0.01065342872982303</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8410989543634664</v>
+        <v>0.009079773587290488</v>
       </c>
       <c r="L8" t="n">
-        <v>2.378771581268677</v>
+        <v>0.05082542499840757</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5381295546730676</v>
+        <v>0.08620954156142355</v>
       </c>
       <c r="N8" t="n">
-        <v>1.028089990004932</v>
+        <v>1.000720922477766</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5610388438972462</v>
+        <v>0.08987966022404632</v>
       </c>
       <c r="P8" t="n">
-        <v>124.4786237594697</v>
+        <v>131.803897665882</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.83004907643</v>
+        <v>206.1553229828422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_11</t>
+          <t>model_2_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9563171875844685</v>
+        <v>0.9989356317755764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.755916296420876</v>
+        <v>0.8198424350569722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7424437794881792</v>
+        <v>0.9979677170407699</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8570700627870608</v>
+        <v>0.9942040721267533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8325936862068944</v>
+        <v>0.9969397067388603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2921071677635155</v>
+        <v>0.007117435217685753</v>
       </c>
       <c r="H9" t="n">
-        <v>1.632188849735714</v>
+        <v>1.204714466323337</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5980279675040515</v>
+        <v>0.00932791228223721</v>
       </c>
       <c r="J9" t="n">
-        <v>1.124189516412717</v>
+        <v>0.01220944938432968</v>
       </c>
       <c r="K9" t="n">
-        <v>0.861108741958384</v>
+        <v>0.01076868083328344</v>
       </c>
       <c r="L9" t="n">
-        <v>2.436182964091172</v>
+        <v>0.05041517132696994</v>
       </c>
       <c r="M9" t="n">
-        <v>0.540469395769562</v>
+        <v>0.08436489327727353</v>
       </c>
       <c r="N9" t="n">
-        <v>1.028334797242507</v>
+        <v>1.000690401010437</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5634782968733574</v>
+        <v>0.08795648144349169</v>
       </c>
       <c r="P9" t="n">
-        <v>124.4612690623157</v>
+        <v>131.890415681378</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.812694379276</v>
+        <v>206.2418409983383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_3</t>
+          <t>model_2_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9513544971571362</v>
+        <v>0.9989597841247173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7554216212618181</v>
+        <v>0.8197356961288328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5585406458201065</v>
+        <v>0.9975634196156253</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9427093529813637</v>
+        <v>0.9935050665249967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8565612396302339</v>
+        <v>0.9964667998426179</v>
       </c>
       <c r="G10" t="n">
-        <v>0.325292701502175</v>
+        <v>0.006955928347768881</v>
       </c>
       <c r="H10" t="n">
-        <v>1.635496744802104</v>
+        <v>1.205428230027292</v>
       </c>
       <c r="I10" t="n">
-        <v>1.02503849369748</v>
+        <v>0.01118358444666414</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4506092007225893</v>
+        <v>0.01368194416008499</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7378238472100347</v>
+        <v>0.01243276430337456</v>
       </c>
       <c r="L10" t="n">
-        <v>1.641094255499227</v>
+        <v>0.05006197537182291</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5703443709743922</v>
+        <v>0.08340220829072142</v>
       </c>
       <c r="N10" t="n">
-        <v>1.031553839681858</v>
+        <v>1.000674734621805</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5946251116223813</v>
+        <v>0.0869528129640294</v>
       </c>
       <c r="P10" t="n">
-        <v>124.2460597639211</v>
+        <v>131.9363219666479</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.5974850808814</v>
+        <v>206.2877472836081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_12</t>
+          <t>model_2_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9558691119686575</v>
+        <v>0.9989665145075632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7552441768313994</v>
+        <v>0.8196304926279144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7517943729145499</v>
+        <v>0.9971594961033223</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8494312598802751</v>
+        <v>0.9928480625804453</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8288639537832991</v>
+        <v>0.996006725478528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2951034514696421</v>
+        <v>0.006910922246687482</v>
       </c>
       <c r="H11" t="n">
-        <v>1.63668331652537</v>
+        <v>1.206131726322351</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5763165276847497</v>
+        <v>0.01303754040018121</v>
       </c>
       <c r="J11" t="n">
-        <v>1.184271136213317</v>
+        <v>0.01506596007293514</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8802938319490333</v>
+        <v>0.01405169215234007</v>
       </c>
       <c r="L11" t="n">
-        <v>2.486373140103763</v>
+        <v>0.04975081716998708</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5432342510093063</v>
+        <v>0.08313195683181938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.028625440885195</v>
+        <v>1.000670368968067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5663608577246969</v>
+        <v>0.08667105634102426</v>
       </c>
       <c r="P11" t="n">
-        <v>124.4408586023385</v>
+        <v>131.9493043691927</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.7922839192988</v>
+        <v>206.3007296861529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_13</t>
+          <t>model_2_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9553802791805422</v>
+        <v>0.9989602299155554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7545659858392331</v>
+        <v>0.8195282214156963</v>
       </c>
       <c r="D12" t="n">
-        <v>0.759817519593853</v>
+        <v>0.996762050954627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.842441872475629</v>
+        <v>0.9922340820500234</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8253311195112397</v>
+        <v>0.9955637211959026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2983722785746366</v>
+        <v>0.006952947342381896</v>
       </c>
       <c r="H12" t="n">
-        <v>1.641218382812769</v>
+        <v>1.206815614389369</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5576873286225965</v>
+        <v>0.01486176151427008</v>
       </c>
       <c r="J12" t="n">
-        <v>1.239244896082421</v>
+        <v>0.01635934473421669</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8984661123525089</v>
+        <v>0.01561055312424339</v>
       </c>
       <c r="L12" t="n">
-        <v>2.530353505616599</v>
+        <v>0.04947994233300107</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5462346369232151</v>
+        <v>0.08338433511386834</v>
       </c>
       <c r="N12" t="n">
-        <v>1.028942521612621</v>
+        <v>1.00067444546018</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5694889762786157</v>
+        <v>0.08693417888903511</v>
       </c>
       <c r="P12" t="n">
-        <v>124.4188266303741</v>
+        <v>131.9371792625211</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.7702519473344</v>
+        <v>206.2886045794814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_14</t>
+          <t>model_2_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9548724015026708</v>
+        <v>0.9989444116786317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7538975720098228</v>
+        <v>0.8194297501977055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7667396218887285</v>
+        <v>0.99637581578941</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8360604294088579</v>
+        <v>0.991662434341148</v>
       </c>
       <c r="F13" t="n">
-        <v>0.822014576247064</v>
+        <v>0.9951407324469607</v>
       </c>
       <c r="G13" t="n">
-        <v>0.301768458945125</v>
+        <v>0.007058723965527568</v>
       </c>
       <c r="H13" t="n">
-        <v>1.645688069167798</v>
+        <v>1.207474091877492</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5416146794820198</v>
+        <v>0.01663453027419902</v>
       </c>
       <c r="J13" t="n">
-        <v>1.289436979946285</v>
+        <v>0.01756355291620559</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9155258297141521</v>
+        <v>0.01709898264544865</v>
       </c>
       <c r="L13" t="n">
-        <v>2.568995286474092</v>
+        <v>0.04925071078175695</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5493345601226315</v>
+        <v>0.08401621251596365</v>
       </c>
       <c r="N13" t="n">
-        <v>1.029271955782051</v>
+        <v>1.000684705938185</v>
       </c>
       <c r="O13" t="n">
-        <v>0.572720869626357</v>
+        <v>0.08759295662030417</v>
       </c>
       <c r="P13" t="n">
-        <v>124.3961904958015</v>
+        <v>131.9069819704787</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.7476158127618</v>
+        <v>206.258407287439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_15</t>
+          <t>model_2_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.954361308725193</v>
+        <v>0.9989218568184303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7532497693029747</v>
+        <v>0.8193358595348721</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7727404433259815</v>
+        <v>0.996004484840681</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8302452060752691</v>
+        <v>0.9911325330740077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8189229966545677</v>
+        <v>0.9947399090843821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3051861387014845</v>
+        <v>0.007209548419549811</v>
       </c>
       <c r="H14" t="n">
-        <v>1.650019928851348</v>
+        <v>1.208101939172186</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5276811816214606</v>
+        <v>0.01833889063489243</v>
       </c>
       <c r="J14" t="n">
-        <v>1.335175565120919</v>
+        <v>0.01867981986109027</v>
       </c>
       <c r="K14" t="n">
-        <v>0.93142837337119</v>
+        <v>0.01850941572940869</v>
       </c>
       <c r="L14" t="n">
-        <v>2.603007278788422</v>
+        <v>0.04905496334003086</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5524365472174017</v>
+        <v>0.08490905970242404</v>
       </c>
       <c r="N14" t="n">
-        <v>1.029603475421496</v>
+        <v>1.000699336117775</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5759549147337502</v>
+        <v>0.08852381415994065</v>
       </c>
       <c r="P14" t="n">
-        <v>124.3736667954038</v>
+        <v>131.8646979243283</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.7250921123641</v>
+        <v>206.2161232412885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_2</t>
+          <t>model_2_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9475849279097615</v>
+        <v>0.9988947132718831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7528890730233309</v>
+        <v>0.819247057179</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5047636506368163</v>
+        <v>0.9956502902186301</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9551687159874129</v>
+        <v>0.9906427284778896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.853949403831023</v>
+        <v>0.9943623148601373</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3504998284166405</v>
+        <v>0.007391057440295156</v>
       </c>
       <c r="H15" t="n">
-        <v>1.65243190653418</v>
+        <v>1.208695760934799</v>
       </c>
       <c r="I15" t="n">
-        <v>1.149905006585536</v>
+        <v>0.01996459750328197</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3526123391433832</v>
+        <v>0.01971162090404688</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7512586728644597</v>
+        <v>0.01983810920366442</v>
       </c>
       <c r="L15" t="n">
-        <v>1.459966080010504</v>
+        <v>0.04888502092806634</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5920302597136742</v>
+        <v>0.08597125938530362</v>
       </c>
       <c r="N15" t="n">
-        <v>1.033998965680155</v>
+        <v>1.000716942742562</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6172342135412728</v>
+        <v>0.08963123388237687</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0967901240929</v>
+        <v>131.8149689271111</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.4482154410531</v>
+        <v>206.1663942440713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_16</t>
+          <t>model_2_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9538582700401063</v>
+        <v>0.998864679542103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7526299966331274</v>
+        <v>0.8191634557287032</v>
       </c>
       <c r="D16" t="n">
-        <v>0.777963902399297</v>
+        <v>0.9953149626783779</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8249543064703486</v>
+        <v>0.9901913575059185</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8160568320993031</v>
+        <v>0.9940085124382607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3085499607049401</v>
+        <v>0.007591893129627083</v>
       </c>
       <c r="H16" t="n">
-        <v>1.654164351548409</v>
+        <v>1.209254804217883</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5155526661200766</v>
+        <v>0.02150370694032364</v>
       </c>
       <c r="J16" t="n">
-        <v>1.376790177036563</v>
+        <v>0.02066245934723657</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9461714215783197</v>
+        <v>0.0210830831437801</v>
       </c>
       <c r="L16" t="n">
-        <v>2.633010012913806</v>
+        <v>0.04873344553936507</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5554727362390887</v>
+        <v>0.08713147037452704</v>
       </c>
       <c r="N16" t="n">
-        <v>1.029929770784796</v>
+        <v>1.000736424080798</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5791203606078681</v>
+        <v>0.09084083745537937</v>
       </c>
       <c r="P16" t="n">
-        <v>124.351743003138</v>
+        <v>131.7613485889647</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.7031683200983</v>
+        <v>206.1127739059249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_17</t>
+          <t>model_2_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9533711214160603</v>
+        <v>0.9988330712190964</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7520427594553667</v>
+        <v>0.8190852325990183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7825282840010093</v>
+        <v>0.9949993876826836</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8201466916740876</v>
+        <v>0.9897764747100219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8134114036952452</v>
+        <v>0.9936785141700624</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3118075257970488</v>
+        <v>0.007803258131115744</v>
       </c>
       <c r="H17" t="n">
-        <v>1.658091209260073</v>
+        <v>1.209777882646271</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5049544835300367</v>
+        <v>0.02295215478806775</v>
       </c>
       <c r="J17" t="n">
-        <v>1.414603599880619</v>
+        <v>0.02153643338689107</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9597790417053276</v>
+        <v>0.02224429408747941</v>
       </c>
       <c r="L17" t="n">
-        <v>2.659524218706405</v>
+        <v>0.04860881876285167</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5583972831211205</v>
+        <v>0.08833605227264656</v>
       </c>
       <c r="N17" t="n">
-        <v>1.030245759081474</v>
+        <v>1.000756926776802</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5821694115053145</v>
+        <v>0.09209670089873012</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3307383720663</v>
+        <v>131.7064278467707</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.6821636890266</v>
+        <v>206.057853163731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_18</t>
+          <t>model_2_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9529050749642735</v>
+        <v>0.9988008695682846</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7514906961725341</v>
+        <v>0.8190124328175926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7865285245600903</v>
+        <v>0.9947041039664939</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8157833213284094</v>
+        <v>0.9893956566568809</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8109782907675561</v>
+        <v>0.9933719460151259</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3149239805660939</v>
+        <v>0.008018590718368331</v>
       </c>
       <c r="H18" t="n">
-        <v>1.661782858974392</v>
+        <v>1.210264695119876</v>
       </c>
       <c r="I18" t="n">
-        <v>0.495666197942057</v>
+        <v>0.02430746832375483</v>
       </c>
       <c r="J18" t="n">
-        <v>1.448922898513834</v>
+        <v>0.02233864812215822</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9722945482279457</v>
+        <v>0.02332305822295653</v>
       </c>
       <c r="L18" t="n">
-        <v>2.682995064578979</v>
+        <v>0.04849710355520464</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5611808804352604</v>
+        <v>0.08954658406867529</v>
       </c>
       <c r="N18" t="n">
-        <v>1.030548059482634</v>
+        <v>1.000777814334086</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5850715123199582</v>
+        <v>0.09335876753946207</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3108480016357</v>
+        <v>131.6519851868923</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.662273318596</v>
+        <v>206.0034105038525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_19</t>
+          <t>model_2_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9524634178723084</v>
+        <v>0.9987688338965769</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7509748873297206</v>
+        <v>0.8189448506508947</v>
       </c>
       <c r="D19" t="n">
-        <v>0.790045237418264</v>
+        <v>0.9944290520884124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8118263083788528</v>
+        <v>0.9890471028128268</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8087467216543702</v>
+        <v>0.9930882302611029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3178773435737078</v>
+        <v>0.008232813402588664</v>
       </c>
       <c r="H19" t="n">
-        <v>1.665232075081367</v>
+        <v>1.210716617379772</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4875006306779865</v>
+        <v>0.02556992037559967</v>
       </c>
       <c r="J19" t="n">
-        <v>1.480046066696393</v>
+        <v>0.02307289647889429</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9837733486871896</v>
+        <v>0.02432140842724698</v>
       </c>
       <c r="L19" t="n">
-        <v>2.703808193455755</v>
+        <v>0.04839967339927271</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5638061223272658</v>
+        <v>0.09073485219356818</v>
       </c>
       <c r="N19" t="n">
-        <v>1.030834539758503</v>
+        <v>1.000798594229247</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5878085161943062</v>
+        <v>0.09459762269848576</v>
       </c>
       <c r="P19" t="n">
-        <v>124.2921793652807</v>
+        <v>131.599254950987</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.6436046822409</v>
+        <v>205.9506802679472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_20</t>
+          <t>model_2_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9520482477160317</v>
+        <v>0.998737464280432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7504954454969254</v>
+        <v>0.8188823578998773</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7931454409177643</v>
+        <v>0.994173516544164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8082416555619775</v>
+        <v>0.9887283382981265</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8067058301907228</v>
+        <v>0.9928261594723177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3206535883204129</v>
+        <v>0.008442582170194064</v>
       </c>
       <c r="H20" t="n">
-        <v>1.668438104824896</v>
+        <v>1.211134506693579</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4803021697207215</v>
+        <v>0.02674279501439759</v>
       </c>
       <c r="J20" t="n">
-        <v>1.508240503742194</v>
+        <v>0.02374439193102349</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9942713367314581</v>
+        <v>0.02524359347271054</v>
       </c>
       <c r="L20" t="n">
-        <v>2.722287928450411</v>
+        <v>0.04831540699235766</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5662628261862268</v>
+        <v>0.0918835250205066</v>
       </c>
       <c r="N20" t="n">
-        <v>1.031103839319331</v>
+        <v>1.000818942088368</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5903698070226212</v>
+        <v>0.09579519690574752</v>
       </c>
       <c r="P20" t="n">
-        <v>124.2747878053597</v>
+        <v>131.5489341456598</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.6262131223199</v>
+        <v>205.9003594626201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_21</t>
+          <t>model_2_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9516602023321912</v>
+        <v>0.9987072110729365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7500517671785338</v>
+        <v>0.818824774374507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7958832779934879</v>
+        <v>0.9939373648798712</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8049961722413235</v>
+        <v>0.9884374210140368</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8048424609191529</v>
+        <v>0.9925850659447443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3232484495889391</v>
+        <v>0.008644885508019761</v>
       </c>
       <c r="H21" t="n">
-        <v>1.671404983782931</v>
+        <v>1.211519567992878</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4739450988703318</v>
+        <v>0.02782670018607852</v>
       </c>
       <c r="J21" t="n">
-        <v>1.533767264586817</v>
+        <v>0.02435722561922639</v>
       </c>
       <c r="K21" t="n">
-        <v>1.003856181728574</v>
+        <v>0.02609196290265245</v>
       </c>
       <c r="L21" t="n">
-        <v>2.738714887511468</v>
+        <v>0.0482440386867526</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5685494258100513</v>
+        <v>0.09297787644391413</v>
       </c>
       <c r="N21" t="n">
-        <v>1.031355544433173</v>
+        <v>1.000838565790528</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5927537519263457</v>
+        <v>0.09693613713486925</v>
       </c>
       <c r="P21" t="n">
-        <v>124.2586681153272</v>
+        <v>131.501574807314</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.6100934322874</v>
+        <v>205.8530001242742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_1</t>
+          <t>model_2_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9421087173246689</v>
+        <v>0.9986783392830412</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7489431880159815</v>
+        <v>0.8187718104533728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4358366633107238</v>
+        <v>0.9937197127186084</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9669382320696427</v>
+        <v>0.9881725844756413</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8473907856559493</v>
+        <v>0.992363844147094</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3871192738147849</v>
+        <v>0.008837951299991815</v>
       </c>
       <c r="H22" t="n">
-        <v>1.678818057747456</v>
+        <v>1.211873737977379</v>
       </c>
       <c r="I22" t="n">
-        <v>1.309948767341486</v>
+        <v>0.02882569506475784</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2600413435150734</v>
+        <v>0.02491511874374012</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7849950554282797</v>
+        <v>0.02687040690424898</v>
       </c>
       <c r="L22" t="n">
-        <v>1.251135264455621</v>
+        <v>0.0481827810840072</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6221890981163082</v>
+        <v>0.0940103786823126</v>
       </c>
       <c r="N22" t="n">
-        <v>1.03755110227589</v>
+        <v>1.000857293438027</v>
       </c>
       <c r="O22" t="n">
-        <v>0.648676976132109</v>
+        <v>0.09801259513113061</v>
       </c>
       <c r="P22" t="n">
-        <v>123.8980448647295</v>
+        <v>131.4574003651723</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.2494701816898</v>
+        <v>205.8088256821325</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_0</t>
+          <t>model_2_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9343106283718365</v>
+        <v>0.9986509835357376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7430423907034662</v>
+        <v>0.8187232165889784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.346551436749599</v>
+        <v>0.9935193861875692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9772176749973467</v>
+        <v>0.9879315434488696</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8350980741487292</v>
+        <v>0.9921610248896546</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4392651305492729</v>
+        <v>0.009020879308172346</v>
       </c>
       <c r="H23" t="n">
-        <v>1.718276716546918</v>
+        <v>1.212198685372338</v>
       </c>
       <c r="I23" t="n">
-        <v>1.517262970284752</v>
+        <v>0.0297451675726838</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1791902482216408</v>
+        <v>0.02542288527918995</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8482266092531966</v>
+        <v>0.02758409532030455</v>
       </c>
       <c r="L23" t="n">
-        <v>1.011961704329156</v>
+        <v>0.04812508674277742</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6627707979002039</v>
+        <v>0.0949783096721159</v>
       </c>
       <c r="N23" t="n">
-        <v>1.042609322137187</v>
+        <v>1.000875037706549</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6909863228915046</v>
+        <v>0.09902173294706322</v>
       </c>
       <c r="P23" t="n">
-        <v>123.6453042123618</v>
+        <v>131.4164269307651</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.996729529322</v>
+        <v>205.7678522477254</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_2_8_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9986252533053437</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8186786958567497</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9933356657330206</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9877121317643694</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9919755492367847</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.009192937477293344</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.212496395713751</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.03058842036713273</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02588508838364885</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02823675437539079</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.04808067803347983</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.09587980745335976</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.000891727585723</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.09996160935521231</v>
+      </c>
+      <c r="P24" t="n">
+        <v>131.3786395104896</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>205.7300648274498</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_2_8_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9986012085988151</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8186380676582812</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.993167501960695</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9875129713536225</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.991806240699895</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.009353724540565564</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.212768076663985</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03136027003018237</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0263046310362759</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02883252394403524</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.04803190021363674</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.09671465525227066</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.00090732415212</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.100831998353296</v>
+      </c>
+      <c r="P25" t="n">
+        <v>131.3439613368319</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>205.6953866537921</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_2_8_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9985788177240053</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8186009648216579</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9930136930338037</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.98733218928197</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9916518170145435</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.009503452423519278</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.213016183503328</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03206623283509154</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0266854586797021</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.02937591610901659</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.04799900185091541</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.09748565239828515</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.000921847962807</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1016358184440005</v>
+      </c>
+      <c r="P26" t="n">
+        <v>131.3122002667843</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>205.6636255837445</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_0</t>
+          <t>model_2_8_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9975965925217696</v>
+        <v>0.9781406754634849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8203656093757686</v>
+        <v>0.8165881775245889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999156455610038</v>
+        <v>0.7488283954576789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995170644429986</v>
+        <v>0.984611857724356</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999800430392713</v>
+        <v>0.9779001894790373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01607159687360073</v>
+        <v>0.1461734038286104</v>
       </c>
       <c r="H2" t="n">
-        <v>1.201215997244548</v>
+        <v>1.226475701426861</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003871758132892892</v>
+        <v>0.09410953243410995</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001017331024134787</v>
+        <v>0.1962206244568722</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007022534187120383</v>
+        <v>0.1451652256772762</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05616280452761498</v>
+        <v>0.8578858675444379</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1267738020002585</v>
+        <v>0.3823263054363517</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001558967012906</v>
+        <v>1.014179021320983</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1321708252093575</v>
+        <v>0.3986027277833353</v>
       </c>
       <c r="P2" t="n">
-        <v>130.2614034686253</v>
+        <v>125.8459233291444</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.6128287855855</v>
+        <v>200.1973486461047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_1</t>
+          <t>model_2_8_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980011596509989</v>
+        <v>0.9771733269027737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8203535998599394</v>
+        <v>0.8163610684687761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998317953182305</v>
+        <v>0.8424390715883856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988841111670097</v>
+        <v>0.9900629782207653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9995562854926494</v>
+        <v>0.9858610766228811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01336625461758404</v>
+        <v>0.1526420681083173</v>
       </c>
       <c r="H3" t="n">
-        <v>1.201296304932197</v>
+        <v>1.227994380728822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007720374320324091</v>
+        <v>0.05903527721503588</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002350682845420323</v>
+        <v>0.1267111119611337</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001561360138726366</v>
+        <v>0.0928731945880848</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05438257132104461</v>
+        <v>0.8979528519320552</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1156125192943395</v>
+        <v>0.3906943410241788</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001296545091244</v>
+        <v>1.01480649065766</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1205343835916073</v>
+        <v>0.407327007970358</v>
       </c>
       <c r="P3" t="n">
-        <v>130.6300441208551</v>
+        <v>125.7593190448926</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.9814694378153</v>
+        <v>200.1107443618528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_2</t>
+          <t>model_2_8_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983061430988303</v>
+        <v>0.978224170688524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8203070967000579</v>
+        <v>0.8161547091523679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9996555561942647</v>
+        <v>0.6472848552324857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981325956325279</v>
+        <v>0.9786372202660016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999216406629184</v>
+        <v>0.9692049716332755</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01132682889761592</v>
+        <v>0.1456150708743147</v>
       </c>
       <c r="H4" t="n">
-        <v>1.201607271776453</v>
+        <v>1.229374306427842</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001580951900160293</v>
+        <v>0.1321560907212629</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003933792759908041</v>
+        <v>0.2724057202261828</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002757339311413656</v>
+        <v>0.2022807950481451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0531578304651338</v>
+        <v>0.8211982742271232</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1064275758326568</v>
+        <v>0.3815954282670518</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001098717989948</v>
+        <v>1.014124862256093</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1109584180713067</v>
+        <v>0.397840735659814</v>
       </c>
       <c r="P4" t="n">
-        <v>130.9611622571765</v>
+        <v>125.8535772796481</v>
       </c>
       <c r="Q4" t="n">
-        <v>205.3125875741368</v>
+        <v>200.2050025966084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_3</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985324262272425</v>
+        <v>0.9776635310448164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8202364550684892</v>
+        <v>0.8152469749394398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994045061503212</v>
+        <v>0.5424729791201144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9973303370756615</v>
+        <v>0.9723863574719774</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9988125297589541</v>
+        <v>0.9601483697325578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009813672575985363</v>
+        <v>0.1493640707532951</v>
       </c>
       <c r="H5" t="n">
-        <v>1.202079652692027</v>
+        <v>1.235444329289424</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002733238680759515</v>
+        <v>0.1714272363288673</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005623795716711294</v>
+        <v>0.3521130805343219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004178517198735405</v>
+        <v>0.2617701584315946</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05245506697939082</v>
+        <v>0.7876767572126446</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09906398223363203</v>
+        <v>0.3864764815008737</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000951939744491</v>
+        <v>1.014488520403362</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1032813410480312</v>
+        <v>0.4029295854349728</v>
       </c>
       <c r="P5" t="n">
-        <v>131.2479574096467</v>
+        <v>125.8027370509566</v>
       </c>
       <c r="Q5" t="n">
-        <v>205.599382726607</v>
+        <v>200.1541623679169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_4</t>
+          <t>model_2_8_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9986965284622442</v>
+        <v>0.9750186076966233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8201496232787154</v>
+        <v>0.8152379502223659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9990956212784586</v>
+        <v>0.9217252574265881</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9965170976454598</v>
+        <v>0.9946783447113735</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983676564084957</v>
+        <v>0.992602188699184</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008716320174907677</v>
+        <v>0.1670506853614147</v>
       </c>
       <c r="H6" t="n">
-        <v>1.202660297270067</v>
+        <v>1.235504677614052</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004150979737415839</v>
+        <v>0.02932815370752993</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007336930503329525</v>
+        <v>0.06785864759849995</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005743955120372683</v>
+        <v>0.04859340065301494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05184399652698523</v>
+        <v>0.9415793795770629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09336123486173303</v>
+        <v>0.408718344782094</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000845495051517</v>
+        <v>1.016204146358947</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09733581591419603</v>
+        <v>0.426118330883079</v>
       </c>
       <c r="P6" t="n">
-        <v>131.485116256836</v>
+        <v>125.5789160149112</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.8365415737962</v>
+        <v>199.9303413318714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_5</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9988117179245263</v>
+        <v>0.9766464807913339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.820052239364232</v>
+        <v>0.8140109772715283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9987444531395504</v>
+        <v>0.4377352828411771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.995716469054802</v>
+        <v>0.9660499413800488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9978989946343848</v>
+        <v>0.9510109109045832</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007946047710228672</v>
+        <v>0.156165090481419</v>
       </c>
       <c r="H7" t="n">
-        <v>1.20331150395463</v>
+        <v>1.243709451385994</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005762795445054061</v>
+        <v>0.2106705880723793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009023499844263622</v>
+        <v>0.4329113666500373</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007393100686991082</v>
+        <v>0.3217906401285556</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05130019390324222</v>
+        <v>0.7571084692933607</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08914060640487405</v>
+        <v>0.3951772899363259</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000770777562469</v>
+        <v>1.015148228675891</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0929355065660232</v>
+        <v>0.4120008052986787</v>
       </c>
       <c r="P7" t="n">
-        <v>131.6701612346002</v>
+        <v>125.7136831179824</v>
       </c>
       <c r="Q7" t="n">
-        <v>206.0215865515604</v>
+        <v>200.0651084349427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_6</t>
+          <t>model_2_8_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.998888577846777</v>
+        <v>0.971294511861288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8199487686014977</v>
+        <v>0.812924015418903</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9983646333559233</v>
+        <v>0.9780684083375005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9949427281626576</v>
+        <v>0.9980705562886257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9974196681699418</v>
+        <v>0.9975017140093203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007432085056230814</v>
+        <v>0.1919537313601863</v>
       </c>
       <c r="H8" t="n">
-        <v>1.204003413421473</v>
+        <v>1.250977970299498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00750611844475795</v>
+        <v>0.008217377281379293</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01065342872982303</v>
+        <v>0.02460314202445817</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009079773587290488</v>
+        <v>0.01641028773977016</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05082542499840757</v>
+        <v>0.9889762949042945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08620954156142355</v>
+        <v>0.4381252462027112</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000720922477766</v>
+        <v>1.018619776089975</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08987966022404632</v>
+        <v>0.4567771449778497</v>
       </c>
       <c r="P8" t="n">
-        <v>131.803897665882</v>
+        <v>125.3010018369887</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.1553229828422</v>
+        <v>199.6524271539489</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9989356317755764</v>
+        <v>0.9753186335533474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8198424350569722</v>
+        <v>0.8125599924318304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9979677170407699</v>
+        <v>0.3353976345543959</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9942040721267533</v>
+        <v>0.9597716436618982</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9969397067388603</v>
+        <v>0.9419982030705386</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007117435217685753</v>
+        <v>0.165044411076009</v>
       </c>
       <c r="H9" t="n">
-        <v>1.204714466323337</v>
+        <v>1.253412193690224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00932791228223721</v>
+        <v>0.2490146845247815</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01220944938432968</v>
+        <v>0.5129685611257837</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01076868083328344</v>
+        <v>0.3809916801307505</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05041517132696994</v>
+        <v>0.7292773997009715</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08436489327727353</v>
+        <v>0.406256582809447</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000690401010437</v>
+        <v>1.016009534992423</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08795648144349169</v>
+        <v>0.4235517666067065</v>
       </c>
       <c r="P9" t="n">
-        <v>131.890415681378</v>
+        <v>125.6030813665233</v>
       </c>
       <c r="Q9" t="n">
-        <v>206.2418409983383</v>
+        <v>199.9545066834836</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9989597841247173</v>
+        <v>0.973791954463889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8197356961288328</v>
+        <v>0.810980692244975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9975634196156253</v>
+        <v>0.2370300884089527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9935050665249967</v>
+        <v>0.9536564791683898</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9964667998426179</v>
+        <v>0.9332571360797256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006955928347768881</v>
+        <v>0.1752533211769274</v>
       </c>
       <c r="H10" t="n">
-        <v>1.205428230027292</v>
+        <v>1.263972981311735</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01118358444666414</v>
+        <v>0.2858712543241697</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01368194416008499</v>
+        <v>0.5909455757698397</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01243276430337456</v>
+        <v>0.4384084150470047</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05006197537182291</v>
+        <v>0.7039811916470557</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08340220829072142</v>
+        <v>0.4186326804932068</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000674734621805</v>
+        <v>1.016999813320721</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0869528129640294</v>
+        <v>0.4364547403909181</v>
       </c>
       <c r="P10" t="n">
-        <v>131.9363219666479</v>
+        <v>125.4830456043322</v>
       </c>
       <c r="Q10" t="n">
-        <v>206.2877472836081</v>
+        <v>199.8344709212924</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9989665145075632</v>
+        <v>0.972151441565083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8196304926279144</v>
+        <v>0.809338802572931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9971594961033223</v>
+        <v>0.1436281069139067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9928480625804453</v>
+        <v>0.9477784951282127</v>
       </c>
       <c r="F11" t="n">
-        <v>0.996006725478528</v>
+        <v>0.9248878962118603</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006910922246687482</v>
+        <v>0.1862234384851107</v>
       </c>
       <c r="H11" t="n">
-        <v>1.206131726322351</v>
+        <v>1.2749523051089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01303754040018121</v>
+        <v>0.3208673153754781</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01506596007293514</v>
+        <v>0.6658982034652974</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01405169215234007</v>
+        <v>0.4933827594203877</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04975081716998708</v>
+        <v>0.6810041727148851</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08313195683181938</v>
+        <v>0.4315361380986658</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000670368968067</v>
+        <v>1.018063929795622</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08667105634102426</v>
+        <v>0.449907524900481</v>
       </c>
       <c r="P11" t="n">
-        <v>131.9493043691927</v>
+        <v>125.3616160881061</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.3007296861529</v>
+        <v>199.7130414050663</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9989602299155554</v>
+        <v>0.9704608938045488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8195282214156963</v>
+        <v>0.8076831592859047</v>
       </c>
       <c r="D12" t="n">
-        <v>0.996762050954627</v>
+        <v>0.05578630416572661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9922340820500234</v>
+        <v>0.9421867742574201</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9955637211959026</v>
+        <v>0.916955092191352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006952947342381896</v>
+        <v>0.1975281391440598</v>
       </c>
       <c r="H12" t="n">
-        <v>1.206815614389369</v>
+        <v>1.286023599392781</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01486176151427008</v>
+        <v>0.3537800763536309</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01635934473421669</v>
+        <v>0.7372005700149016</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01561055312424339</v>
+        <v>0.5454903231842663</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04947994233300107</v>
+        <v>0.6601622296962961</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08338433511386834</v>
+        <v>0.4444413787487161</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00067444546018</v>
+        <v>1.019160501315968</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08693417888903511</v>
+        <v>0.463362168362535</v>
       </c>
       <c r="P12" t="n">
-        <v>131.9371792625211</v>
+        <v>125.243748456222</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.2886045794814</v>
+        <v>199.5951737731823</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9989444116786317</v>
+        <v>0.9687673480161207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8194297501977055</v>
+        <v>0.806049607192287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.99637581578941</v>
+        <v>-0.02622517685250392</v>
       </c>
       <c r="E13" t="n">
-        <v>0.991662434341148</v>
+        <v>0.9369119361715911</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9951407324469607</v>
+        <v>0.9094961210861474</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007058723965527568</v>
+        <v>0.2088528876293393</v>
       </c>
       <c r="H13" t="n">
-        <v>1.207474091877492</v>
+        <v>1.296947169764619</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01663453027419902</v>
+        <v>0.3845083194881135</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01756355291620559</v>
+        <v>0.804462231921194</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01709898264544865</v>
+        <v>0.5944854592638373</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04925071078175695</v>
+        <v>0.6412769672884864</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08401621251596365</v>
+        <v>0.4570042534039911</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000684705938185</v>
+        <v>1.020259017503057</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08759295662030417</v>
+        <v>0.4764598706006206</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9069819704787</v>
+        <v>125.132250323606</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.258407287439</v>
+        <v>199.4836756405663</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9989218568184303</v>
+        <v>0.9671050168670881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8193358595348721</v>
+        <v>0.8044637975369188</v>
       </c>
       <c r="D14" t="n">
-        <v>0.996004484840681</v>
+        <v>-0.1023403193312225</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9911325330740077</v>
+        <v>0.9319701023018859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9947399090843821</v>
+        <v>0.902528605913869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007209548419549811</v>
+        <v>0.2199689036772518</v>
       </c>
       <c r="H14" t="n">
-        <v>1.208101939172186</v>
+        <v>1.307551486232048</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01833889063489243</v>
+        <v>0.413027309454676</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01867981986109027</v>
+        <v>0.8674776180871038</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01850941572940869</v>
+        <v>0.6402524087783708</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04905496334003086</v>
+        <v>0.6241701804969003</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08490905970242404</v>
+        <v>0.4690084260194605</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000699336117775</v>
+        <v>1.021337286356483</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08852381415994065</v>
+        <v>0.4889750856963936</v>
       </c>
       <c r="P14" t="n">
-        <v>131.8646979243283</v>
+        <v>125.0285381790836</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.2161232412885</v>
+        <v>199.3799634960438</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9988947132718831</v>
+        <v>0.9654977872573639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.819247057179</v>
+        <v>0.8029432311114764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9956502902186301</v>
+        <v>-0.1726468613290923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9906427284778896</v>
+        <v>0.9273657471224402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9943623148601373</v>
+        <v>0.8960542784455717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007391057440295156</v>
+        <v>0.2307164554780894</v>
       </c>
       <c r="H15" t="n">
-        <v>1.208695760934799</v>
+        <v>1.317719520920546</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01996459750328197</v>
+        <v>0.4393699201432333</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01971162090404688</v>
+        <v>0.926189672625491</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01983810920366442</v>
+        <v>0.6827797963843623</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04888502092806634</v>
+        <v>0.608690602730848</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08597125938530362</v>
+        <v>0.480329528009771</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000716942742562</v>
+        <v>1.022379813670899</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08963123388237687</v>
+        <v>0.5007781504363434</v>
       </c>
       <c r="P15" t="n">
-        <v>131.8149689271111</v>
+        <v>124.9331315757518</v>
       </c>
       <c r="Q15" t="n">
-        <v>206.1663942440713</v>
+        <v>199.2845568927121</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.998864679542103</v>
+        <v>0.9639620208847253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8191634557287032</v>
+        <v>0.8014994364157866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9953149626783779</v>
+        <v>-0.2373338157293738</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9901913575059185</v>
+        <v>0.9230962039180207</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9940085124382607</v>
+        <v>0.8900651971071964</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007591893129627083</v>
+        <v>0.2409861322834778</v>
       </c>
       <c r="H16" t="n">
-        <v>1.209254804217883</v>
+        <v>1.327374182698687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02150370694032364</v>
+        <v>0.4636069713190216</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02066245934723657</v>
+        <v>0.9806323999352586</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0210830831437801</v>
+        <v>0.7221197872526159</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04873344553936507</v>
+        <v>0.5946874532315524</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08713147037452704</v>
+        <v>0.4909033838582474</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000736424080798</v>
+        <v>1.023375986453151</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09084083745537937</v>
+        <v>0.5118021572191886</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7613485889647</v>
+        <v>124.8460317790786</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.1127739059249</v>
+        <v>199.1974570960389</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9988330712190964</v>
+        <v>0.962507996379746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8190852325990183</v>
+        <v>0.8001393473444892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9949993876826836</v>
+        <v>-0.2966602132604106</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9897764747100219</v>
+        <v>0.9191524735195382</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9936785141700624</v>
+        <v>0.8845453148387445</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007803258131115744</v>
+        <v>0.2507092008434409</v>
       </c>
       <c r="H17" t="n">
-        <v>1.209777882646271</v>
+        <v>1.336469104581087</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02295215478806775</v>
+        <v>0.4858355171883668</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02153643338689107</v>
+        <v>1.0309205521773</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02224429408747941</v>
+        <v>0.758377788399357</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04860881876285167</v>
+        <v>0.5820310849785735</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08833605227264656</v>
+        <v>0.5007086985897498</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000756926776802</v>
+        <v>1.024319137483408</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09209670089873012</v>
+        <v>0.5220249044986106</v>
       </c>
       <c r="P17" t="n">
-        <v>131.7064278467707</v>
+        <v>124.7669231477586</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.057853163731</v>
+        <v>199.1183484647188</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9988008695682846</v>
+        <v>0.9611415527485421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8190124328175926</v>
+        <v>0.7988662907266213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9947041039664939</v>
+        <v>-0.3509311608765635</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9893956566568809</v>
+        <v>0.9155218227168558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9933719460151259</v>
+        <v>0.8794733841464484</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008018590718368331</v>
+        <v>0.2598466156971969</v>
       </c>
       <c r="H18" t="n">
-        <v>1.210264695119876</v>
+        <v>1.344982040046657</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02430746832375483</v>
+        <v>0.5061698758998892</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02233864812215822</v>
+        <v>1.077216495828326</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02332305822295653</v>
+        <v>0.7916933665066124</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04849710355520464</v>
+        <v>0.5705964193070029</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08954658406867529</v>
+        <v>0.5097515234868817</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000777814334086</v>
+        <v>1.025205479298243</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09335876753946207</v>
+        <v>0.5314527011728415</v>
       </c>
       <c r="P18" t="n">
-        <v>131.6519851868923</v>
+        <v>124.6953275233513</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.0034105038525</v>
+        <v>199.0467528403115</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9987688338965769</v>
+        <v>0.9598652246874145</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8189448506508947</v>
+        <v>0.7976810063111391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9944290520884124</v>
+        <v>-0.4004599368556294</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9890471028128268</v>
+        <v>0.9121889718807791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9930882302611029</v>
+        <v>0.8748257865091718</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008232813402588664</v>
+        <v>0.2683814273189067</v>
       </c>
       <c r="H19" t="n">
-        <v>1.210716617379772</v>
+        <v>1.352908042390718</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02556992037559967</v>
+        <v>0.524727427251751</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02307289647889429</v>
+        <v>1.119715067817206</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02432140842724698</v>
+        <v>0.8222216626308023</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04839967339927271</v>
+        <v>0.560266545148383</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09073485219356818</v>
+        <v>0.5180554288094148</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000798594229247</v>
+        <v>1.026033367770326</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09459762269848576</v>
+        <v>0.5401101209364088</v>
       </c>
       <c r="P19" t="n">
-        <v>131.599254950987</v>
+        <v>124.630692148095</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.9506802679472</v>
+        <v>198.9821174650552</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.998737464280432</v>
+        <v>0.9586791398232741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8188823578998773</v>
+        <v>0.7965823156855185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.994173516544164</v>
+        <v>-0.445580294334853</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9887283382981265</v>
+        <v>0.9091369117275855</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9928261594723177</v>
+        <v>0.8705765741844065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008442582170194064</v>
+        <v>0.2763127822668324</v>
       </c>
       <c r="H20" t="n">
-        <v>1.211134506693579</v>
+        <v>1.360254991663249</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02674279501439759</v>
+        <v>0.541633222607747</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02374439193102349</v>
+        <v>1.158633160619576</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02524359347271054</v>
+        <v>0.8501331175950927</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04831540699235766</v>
+        <v>0.550941140794373</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0918835250205066</v>
+        <v>0.525654622605787</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000818942088368</v>
+        <v>1.026802720114633</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09579519690574752</v>
+        <v>0.5480328281451922</v>
       </c>
       <c r="P20" t="n">
-        <v>131.5489341456598</v>
+        <v>124.5724435716939</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9003594626201</v>
+        <v>198.9238688886541</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9987072110729365</v>
+        <v>0.9575813353634295</v>
       </c>
       <c r="C21" t="n">
-        <v>0.818824774374507</v>
+        <v>0.7955676834601937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9939373648798712</v>
+        <v>-0.4866225445329959</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9884374210140368</v>
+        <v>0.9063474290224844</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9925850659447443</v>
+        <v>0.8666984522624908</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008644885508019761</v>
+        <v>0.2836538057447383</v>
       </c>
       <c r="H21" t="n">
-        <v>1.211519567992878</v>
+        <v>1.367039842025947</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02782670018607852</v>
+        <v>0.5570110237060403</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02435722561922639</v>
+        <v>1.194203018793614</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02609196290265245</v>
+        <v>0.8756070212498273</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0482440386867526</v>
+        <v>0.5425272755601543</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09297787644391413</v>
+        <v>0.5325915937608651</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000838565790528</v>
+        <v>1.027514809493992</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09693613713486925</v>
+        <v>0.5552651205238519</v>
       </c>
       <c r="P21" t="n">
-        <v>131.501574807314</v>
+        <v>124.5200015565097</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.8530001242742</v>
+        <v>198.8714268734699</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9986783392830412</v>
+        <v>0.9565690493378923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8187718104533728</v>
+        <v>0.7946336639845859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9937197127186084</v>
+        <v>-0.5239012564256345</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9881725844756413</v>
+        <v>0.9038030945214327</v>
       </c>
       <c r="F22" t="n">
-        <v>0.992363844147094</v>
+        <v>0.8631655604292042</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008837951299991815</v>
+        <v>0.2904229670586538</v>
       </c>
       <c r="H22" t="n">
-        <v>1.211873737977379</v>
+        <v>1.373285634560101</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02882569506475784</v>
+        <v>0.5709786939462922</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02491511874374012</v>
+        <v>1.226646889904278</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02687040690424898</v>
+        <v>0.8988132401350968</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0481827810840072</v>
+        <v>0.5349339487984597</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0940103786823126</v>
+        <v>0.5389090526783288</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000857293438027</v>
+        <v>1.028171427456502</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09801259513113061</v>
+        <v>0.5618515267463748</v>
       </c>
       <c r="P22" t="n">
-        <v>131.4574003651723</v>
+        <v>124.4728338229824</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.8088256821325</v>
+        <v>198.8242591399427</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9986509835357376</v>
+        <v>0.955638402042736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8187232165889784</v>
+        <v>0.793776272925051</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9935193861875692</v>
+        <v>-0.5577197561055041</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9879315434488696</v>
+        <v>0.9014857146600749</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9921610248896546</v>
+        <v>0.8599518173718176</v>
       </c>
       <c r="G23" t="n">
-        <v>0.009020879308172346</v>
+        <v>0.2966462098066012</v>
       </c>
       <c r="H23" t="n">
-        <v>1.212198685372338</v>
+        <v>1.379019012523133</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0297451675726838</v>
+        <v>0.5836498842199498</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02542288527918995</v>
+        <v>1.256196767683815</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02758409532030455</v>
+        <v>0.9199230924459025</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04812508674277742</v>
+        <v>0.5280855253013627</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0949783096721159</v>
+        <v>0.5446523751959603</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000875037706549</v>
+        <v>1.028775090566874</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09902173294706322</v>
+        <v>0.5678393543938985</v>
       </c>
       <c r="P23" t="n">
-        <v>131.4164269307651</v>
+        <v>124.4304301260194</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.7678522477254</v>
+        <v>198.7818554429797</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9986252533053437</v>
+        <v>0.954784945332692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8186786958567497</v>
+        <v>0.792991013702448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9933356657330206</v>
+        <v>-0.5883751797300736</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9877121317643694</v>
+        <v>0.8993778824516501</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9919755492367847</v>
+        <v>0.8570315414590055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009192937477293344</v>
+        <v>0.3023532787564718</v>
       </c>
       <c r="H24" t="n">
-        <v>1.212496395713751</v>
+        <v>1.384270044560467</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03058842036713273</v>
+        <v>0.5951359261598208</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02588508838364885</v>
+        <v>1.283074615885288</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02823675437539079</v>
+        <v>0.9391052710225545</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04808067803347983</v>
+        <v>0.5219082791221393</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09587980745335976</v>
+        <v>0.549866600873768</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000891727585723</v>
+        <v>1.029328684108524</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09996160935521231</v>
+        <v>0.5732755604537457</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3786395104896</v>
+        <v>124.3923182961601</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.7300648274498</v>
+        <v>198.7437436131203</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9986012085988151</v>
+        <v>0.9540040776893963</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8186380676582812</v>
+        <v>0.7922733054236573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.993167501960695</v>
+        <v>-0.6161376279602344</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9875129713536225</v>
+        <v>0.8974630821669525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.991806240699895</v>
+        <v>0.8543811734438298</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009353724540565564</v>
+        <v>0.3075749442827546</v>
       </c>
       <c r="H25" t="n">
-        <v>1.212768076663985</v>
+        <v>1.389069363125483</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03136027003018237</v>
+        <v>0.6055380216790474</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0263046310362759</v>
+        <v>1.307491033464703</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02883252394403524</v>
+        <v>0.9565145275718751</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04803190021363674</v>
+        <v>0.5163358528658193</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09671465525227066</v>
+        <v>0.5545943961876595</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00090732415212</v>
+        <v>1.029835192850121</v>
       </c>
       <c r="O25" t="n">
-        <v>0.100831998353296</v>
+        <v>0.578204627802035</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3439613368319</v>
+        <v>124.3580730003721</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.6953866537921</v>
+        <v>198.7094983173323</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9985788177240053</v>
+        <v>0.9532909726761867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8186009648216579</v>
+        <v>0.7916184261895325</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9930136930338037</v>
+        <v>-0.6412603661798553</v>
       </c>
       <c r="E26" t="n">
-        <v>0.98733218928197</v>
+        <v>0.8957252628334555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9916518170145435</v>
+        <v>0.8519778668992095</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009503452423519278</v>
+        <v>0.3123434807896344</v>
       </c>
       <c r="H26" t="n">
-        <v>1.213016183503328</v>
+        <v>1.393448543579517</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03206623283509154</v>
+        <v>0.6149510648119334</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0266854586797021</v>
+        <v>1.329650693071677</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02937591610901659</v>
+        <v>0.9723009315589388</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04799900185091541</v>
+        <v>0.5113137275075058</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09748565239828515</v>
+        <v>0.5588769818033611</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000921847962807</v>
+        <v>1.030297747453284</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1016358184440005</v>
+        <v>0.5826695319535713</v>
       </c>
       <c r="P26" t="n">
-        <v>131.3122002667843</v>
+        <v>124.3273035935037</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.6636255837445</v>
+        <v>198.6787289104639</v>
       </c>
     </row>
   </sheetData>
